--- a/ranking_Aug-2024.xlsx
+++ b/ranking_Aug-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,10 +560,10 @@
         <v>55</v>
       </c>
       <c r="N2" t="n">
-        <v>5103</v>
+        <v>5106</v>
       </c>
       <c r="O2" t="n">
-        <v>4523</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +621,10 @@
         <v>85</v>
       </c>
       <c r="N3" t="n">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="O3" t="n">
-        <v>3073</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="4">
@@ -682,10 +682,10 @@
         <v>36</v>
       </c>
       <c r="N4" t="n">
-        <v>1784</v>
+        <v>1786</v>
       </c>
       <c r="O4" t="n">
-        <v>1728</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="5">
@@ -743,10 +743,10 @@
         <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>2323</v>
+        <v>2329</v>
       </c>
       <c r="O5" t="n">
-        <v>2089</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="6">
@@ -865,7 +865,7 @@
         <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="O7" t="n">
         <v>1250</v>
@@ -1112,7 +1112,7 @@
         <v>900</v>
       </c>
       <c r="O11" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12">
@@ -1170,10 +1170,10 @@
         <v>12</v>
       </c>
       <c r="N12" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O12" t="n">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13">
@@ -1231,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="O13" t="n">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14">
@@ -1292,10 +1292,10 @@
         <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O14" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15">
@@ -1353,10 +1353,10 @@
         <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="O15" t="n">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16">
@@ -1722,7 +1722,7 @@
         <v>836</v>
       </c>
       <c r="O21" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="22">
@@ -2024,10 +2024,10 @@
         <v>7</v>
       </c>
       <c r="N26" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O26" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27">
@@ -2268,10 +2268,10 @@
         <v>8</v>
       </c>
       <c r="N30" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O30" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31">
@@ -2573,10 +2573,10 @@
         <v>6</v>
       </c>
       <c r="N35" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O35" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
@@ -2634,10 +2634,10 @@
         <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O36" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -3244,10 +3244,10 @@
         <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O46" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47">
@@ -3256,17 +3256,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bochra</t>
+          <t>Ikbel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Rabbouch</t>
+          <t>Hadj Hassine</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>rxq9X58AAAAJ</t>
+          <t>iGnXpRMAAAAJ</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3285,11 +3285,11 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -3305,10 +3305,10 @@
         <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>114</v>
+        <v>391</v>
       </c>
       <c r="O47" t="n">
-        <v>112</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48">
@@ -3317,17 +3317,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Bochra</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Rabbouch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>rxq9X58AAAAJ</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
@@ -3360,16 +3360,16 @@
         <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="O48" t="n">
-        <v>58</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -3378,17 +3378,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3421,16 +3421,16 @@
         <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O49" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -3439,17 +3439,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3459,12 +3459,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -3479,19 +3479,19 @@
         <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O50" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -3500,17 +3500,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3520,16 +3520,16 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -3540,19 +3540,19 @@
         <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
         <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="O51" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -3561,17 +3561,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3601,19 +3601,19 @@
         <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O52" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -3622,17 +3622,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="O53" t="n">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -3683,17 +3683,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ikbel</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Hadj Hassine</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>iGnXpRMAAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3712,30 +3712,30 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J54" t="n">
         <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="O54" t="n">
-        <v>390</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
@@ -3866,17 +3866,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Ilef</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Romdhani</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3886,16 +3886,16 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>_ynJvKAAAAAJ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -3906,19 +3906,19 @@
         <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
         <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="O57" t="n">
-        <v>176</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58">
@@ -3927,17 +3927,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Aiman</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Ghrab</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3947,20 +3947,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>ZUM9JuwAAAAJ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -3976,10 +3976,10 @@
         <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>48</v>
+        <v>177</v>
       </c>
       <c r="O58" t="n">
-        <v>48</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59">
@@ -3988,36 +3988,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -4037,10 +4037,10 @@
         <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O59" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60">
@@ -4049,27 +4049,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mohamed Aymen</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ben Abdessalem</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>-k3TRw8AAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4078,30 +4078,30 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J60" t="n">
         <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" t="n">
         <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O60" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
@@ -4110,17 +4110,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Mohamed Aymen</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Ben Abdessalem</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4139,30 +4139,30 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J61" t="n">
         <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="O61" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62">
@@ -4171,27 +4171,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Dorsaf</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ben Cheikh</t>
+          <t>Sallami</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
+          <t>Université de Montréal</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>uGv8N1kAAAAJ</t>
+          <t>wUa3IWgAAAAJ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4200,30 +4200,30 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Sciences économiques, Finance et Gestion</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="O62" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
@@ -4232,59 +4232,59 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sabrine</t>
+          <t>Houssem Eddine</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ziri</t>
+          <t>Chachia</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Institut supérieur de l'aéronautique et de l'espace</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>sdhIDjYAAAAJ</t>
+          <t>cbh0RuIAAAAJ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1992</v>
+        <v>1984</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O63" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
@@ -4293,27 +4293,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ghofrane</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Merhbene</t>
+          <t>Ben Cheikh</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bern University of Applied Sciences</t>
+          <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Suisse</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>I5KRVLMAAAAJ</t>
+          <t>uGv8N1kAAAAJ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4322,30 +4322,30 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Sciences économiques, Finance et Gestion</t>
         </is>
       </c>
       <c r="J64" t="n">
         <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L64" t="n">
         <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="O64" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -4354,59 +4354,242 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>Sabrine</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ziri</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Institut supérieur de l'aéronautique et de l'espace</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>sdhIDjYAAAAJ</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1992</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Chimie et Sciences des Matériaux</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="n">
+        <v>28</v>
+      </c>
+      <c r="O65" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ghofrane</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Merhbene</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Bern University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I5KRVLMAAAAJ</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1999</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Informatique, Mathématiques et Ingénierie</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>10</v>
+      </c>
+      <c r="O66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>Amr</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Chaabani</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Université de Monastir</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Tunisie</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>eickZDMAAAAJ</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="H65" t="n">
+      <c r="H67" t="n">
         <v>1994</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
-      <c r="J65" t="n">
+      <c r="J67" t="n">
         <v>1</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K67" t="n">
         <v>0</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L67" t="n">
         <v>1</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M67" t="n">
         <v>0</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N67" t="n">
         <v>4</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O67" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ilyes</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rezgui</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Université de Tunis El Manar</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2RI_ZRkAAAAJ</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2001</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Informatique, Mathématiques et Ingénierie</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ranking_Aug-2024.xlsx
+++ b/ranking_Aug-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,19 +551,19 @@
         <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
         <v>31</v>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N2" t="n">
-        <v>5106</v>
+        <v>5201</v>
       </c>
       <c r="O2" t="n">
-        <v>4526</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +621,10 @@
         <v>85</v>
       </c>
       <c r="N3" t="n">
-        <v>3389</v>
+        <v>3428</v>
       </c>
       <c r="O3" t="n">
-        <v>3074</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="4">
@@ -670,22 +670,22 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="n">
-        <v>1786</v>
+        <v>1840</v>
       </c>
       <c r="O4" t="n">
-        <v>1730</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="5">
@@ -743,10 +743,10 @@
         <v>32</v>
       </c>
       <c r="N5" t="n">
-        <v>2329</v>
+        <v>2365</v>
       </c>
       <c r="O5" t="n">
-        <v>2095</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="6">
@@ -795,19 +795,19 @@
         <v>19</v>
       </c>
       <c r="K6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" t="n">
         <v>19</v>
       </c>
       <c r="M6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N6" t="n">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="O6" t="n">
-        <v>993</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7">
@@ -865,10 +865,10 @@
         <v>21</v>
       </c>
       <c r="N7" t="n">
-        <v>1443</v>
+        <v>1471</v>
       </c>
       <c r="O7" t="n">
-        <v>1250</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +926,10 @@
         <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>1121</v>
+        <v>1132</v>
       </c>
       <c r="O8" t="n">
-        <v>1005</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9">
@@ -978,19 +978,19 @@
         <v>17</v>
       </c>
       <c r="K9" t="n">
+        <v>25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>16</v>
+      </c>
+      <c r="M9" t="n">
         <v>24</v>
       </c>
-      <c r="L9" t="n">
-        <v>15</v>
-      </c>
-      <c r="M9" t="n">
-        <v>22</v>
-      </c>
       <c r="N9" t="n">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="O9" t="n">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="10">
@@ -1039,19 +1039,19 @@
         <v>14</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L10" t="n">
         <v>14</v>
       </c>
       <c r="M10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="O10" t="n">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11">
@@ -1109,10 +1109,10 @@
         <v>14</v>
       </c>
       <c r="N11" t="n">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="O11" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12">
@@ -1161,19 +1161,19 @@
         <v>13</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12" t="n">
         <v>12</v>
       </c>
       <c r="M12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N12" t="n">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="O12" t="n">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13">
@@ -1231,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>846</v>
+        <v>873</v>
       </c>
       <c r="O13" t="n">
-        <v>631</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14">
@@ -1243,36 +1243,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Skander</t>
+          <t>Omayma</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hathroubi</t>
+          <t>Missawi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Université de Strasbourg</t>
+          <t>Université de Namur</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgique</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>hMHGOioAAAAJ</t>
+          <t>qMrkBQsAAAAJ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1985</v>
+        <v>1992</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1289,13 +1289,13 @@
         <v>12</v>
       </c>
       <c r="M14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
-        <v>764</v>
+        <v>672</v>
       </c>
       <c r="O14" t="n">
-        <v>655</v>
+        <v>672</v>
       </c>
     </row>
     <row r="15">
@@ -1304,36 +1304,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Omayma</t>
+          <t>Skander</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Missawi</t>
+          <t>Hathroubi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Université de Namur</t>
+          <t>Université de Strasbourg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Belgique</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>qMrkBQsAAAAJ</t>
+          <t>hMHGOioAAAAJ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1992</v>
+        <v>1985</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="K15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
         <v>12</v>
@@ -1353,10 +1353,10 @@
         <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>650</v>
+        <v>786</v>
       </c>
       <c r="O15" t="n">
-        <v>650</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16">
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oussama</t>
+          <t>Raouia</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ben Khiroun</t>
+          <t>Mokni</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Université de Carthage</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1385,16 +1385,16 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3aS4BBIAAAAJ</t>
+          <t>j_a72EQAAAAJ</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1408,16 +1408,16 @@
         <v>11</v>
       </c>
       <c r="L16" t="n">
+        <v>9</v>
+      </c>
+      <c r="M16" t="n">
         <v>8</v>
       </c>
-      <c r="M16" t="n">
-        <v>6</v>
-      </c>
       <c r="N16" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O16" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
@@ -1426,59 +1426,59 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nesrine</t>
+          <t>Oussama</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Zitouni</t>
+          <t>Ben Khiroun</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Université de Caen Normandie</t>
+          <t>Université de Carthage</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>kBOIwKQAAAAJ</t>
+          <t>3aS4BBIAAAAJ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
         <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>599</v>
+        <v>258</v>
       </c>
       <c r="O17" t="n">
-        <v>599</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
@@ -1487,27 +1487,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Oumaima</t>
+          <t>Nesrine</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ammar</t>
+          <t>Zitouni</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Università di Firenze</t>
+          <t>Université de Caen Normandie</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Italie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>l3mebFYAAAAJ</t>
+          <t>kBOIwKQAAAAJ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1527,19 +1527,19 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L18" t="n">
         <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N18" t="n">
-        <v>352</v>
+        <v>619</v>
       </c>
       <c r="O18" t="n">
-        <v>342</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19">
@@ -1548,36 +1548,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rami</t>
+          <t>Oumaima</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rahmani</t>
+          <t>Ammar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Università di Firenze</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0kq7_rIAAAAJ</t>
+          <t>l3mebFYAAAAJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1597,10 +1597,10 @@
         <v>11</v>
       </c>
       <c r="N19" t="n">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="O19" t="n">
-        <v>299</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20">
@@ -1609,27 +1609,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mohamed A.</t>
+          <t>Rami</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bahloul</t>
+          <t>Rahmani</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Alfaisal University</t>
+          <t>Université de Gabès</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Arabie Saoudite</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GTIvdXUAAAAJ</t>
+          <t>0kq7_rIAAAAJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1638,11 +1638,11 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1655,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20" t="n">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="O20" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21">
@@ -1670,27 +1670,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mohamed Raâfet</t>
+          <t>Mohamed A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ben Khedher</t>
+          <t>Bahloul</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Université de Jendouba</t>
+          <t>Alfaisal University</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Arabie Saoudite</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>fd-CnyYAAAAJ</t>
+          <t>GTIvdXUAAAAJ</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1699,18 +1699,18 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J21" t="n">
         <v>10</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
         <v>10</v>
@@ -1719,10 +1719,10 @@
         <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>836</v>
+        <v>303</v>
       </c>
       <c r="O21" t="n">
-        <v>707</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22">
@@ -1731,17 +1731,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Mohamed Raâfet</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rabti</t>
+          <t>Ben Khedher</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Jendouba</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1751,20 +1751,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>tOl1jBoAAAAJ</t>
+          <t>fd-CnyYAAAAJ</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1780,10 +1780,10 @@
         <v>10</v>
       </c>
       <c r="N22" t="n">
-        <v>420</v>
+        <v>854</v>
       </c>
       <c r="O22" t="n">
-        <v>332</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hajer</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bougatef</t>
+          <t>Rabti</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ocEvNeAAAAAJ</t>
+          <t>tOl1jBoAAAAJ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1821,11 +1821,11 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1841,10 +1841,10 @@
         <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>326</v>
+        <v>423</v>
       </c>
       <c r="O23" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24">
@@ -1853,17 +1853,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mohamed Ayoub</t>
+          <t>Hajer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tlili</t>
+          <t>Bougatef</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1873,16 +1873,16 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>h2Qsb6MAAAAJ</t>
+          <t>ocEvNeAAAAAJ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="N24" t="n">
-        <v>286</v>
+        <v>335</v>
       </c>
       <c r="O24" t="n">
-        <v>272</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25">
@@ -1957,16 +1957,16 @@
         <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N25" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O25" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26">
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Raouia</t>
+          <t>Mohamed Ayoub</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mokni</t>
+          <t>Tlili</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Université de Gabès</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1995,20 +1995,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>j_a72EQAAAAJ</t>
+          <t>h2Qsb6MAAAAJ</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -2018,16 +2018,16 @@
         <v>10</v>
       </c>
       <c r="L26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N26" t="n">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="O26" t="n">
-        <v>187</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
@@ -2085,10 +2085,10 @@
         <v>8</v>
       </c>
       <c r="N27" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="O27" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
@@ -2146,10 +2146,10 @@
         <v>9</v>
       </c>
       <c r="N28" t="n">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="O28" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29">
@@ -2198,19 +2198,19 @@
         <v>9</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
         <v>8</v>
       </c>
       <c r="M29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N29" t="n">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O29" t="n">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30">
@@ -2268,10 +2268,10 @@
         <v>8</v>
       </c>
       <c r="N30" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="O30" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31">
@@ -2329,10 +2329,10 @@
         <v>7</v>
       </c>
       <c r="N31" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="O31" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32">
@@ -2341,12 +2341,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hana</t>
+          <t>Intissar</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rabbouch</t>
+          <t>Moussa</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>yW86SmIAAAAJ</t>
+          <t>LTv022EAAAAJ</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2390,10 +2390,10 @@
         <v>7</v>
       </c>
       <c r="N32" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O32" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Intissar</t>
+          <t>Hana</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Moussa</t>
+          <t>Rabbouch</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>LTv022EAAAAJ</t>
+          <t>yW86SmIAAAAJ</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2451,10 +2451,10 @@
         <v>7</v>
       </c>
       <c r="N33" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O33" t="n">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34">
@@ -2512,10 +2512,10 @@
         <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O34" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
@@ -2573,10 +2573,10 @@
         <v>6</v>
       </c>
       <c r="N35" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O35" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
@@ -2634,10 +2634,10 @@
         <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O36" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -2695,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -2756,10 +2756,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O38" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39">
@@ -2817,10 +2817,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O39" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40">
@@ -2939,10 +2939,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O41" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -3061,10 +3061,10 @@
         <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O43" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44">
@@ -3183,10 +3183,10 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O45" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -3244,10 +3244,10 @@
         <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="O46" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
@@ -3305,10 +3305,10 @@
         <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="O47" t="n">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48">
@@ -3366,10 +3366,10 @@
         <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O48" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -3427,10 +3427,10 @@
         <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O49" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -3732,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="O54" t="n">
         <v>151</v>
@@ -3793,10 +3793,10 @@
         <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O55" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
@@ -3854,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O56" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -3866,17 +3866,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ilef</t>
+          <t>Houssem Eddine</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Romdhani</t>
+          <t>Chachia</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3886,39 +3886,39 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>_ynJvKAAAAAJ</t>
+          <t>cbh0RuIAAAAJ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O57" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -3927,17 +3927,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Ilef</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Romdhani</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3947,16 +3947,16 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>_ynJvKAAAAAJ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -3967,19 +3967,19 @@
         <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="O58" t="n">
-        <v>177</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
@@ -3988,17 +3988,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Aiman</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Ghrab</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4008,20 +4008,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>ZUM9JuwAAAAJ</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J59" t="n">
@@ -4037,10 +4037,10 @@
         <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="O59" t="n">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
@@ -4049,36 +4049,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -4098,10 +4098,10 @@
         <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O60" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -4110,27 +4110,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mohamed Aymen</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Ben Abdessalem</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-k3TRw8AAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4139,30 +4139,30 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J61" t="n">
         <v>3</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
         <v>3</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O61" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
@@ -4171,40 +4171,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dorsaf</t>
+          <t>Mohamed Aymen</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sallami</t>
+          <t>Ben Abdessalem</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Université de Montréal</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>wUa3IWgAAAAJ</t>
+          <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -4220,10 +4220,10 @@
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="O62" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63">
@@ -4232,17 +4232,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Emna</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Boughariou</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4252,39 +4252,39 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>wdvUCRwAAAAJ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O63" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -4293,27 +4293,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Dorsaf</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ben Cheikh</t>
+          <t>Sallami</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
+          <t>Université de Montréal</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>uGv8N1kAAAAJ</t>
+          <t>wUa3IWgAAAAJ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4322,30 +4322,30 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Sciences économiques, Finance et Gestion</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="O64" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -4354,27 +4354,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sabrine</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ziri</t>
+          <t>Ben Cheikh</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Institut supérieur de l'aéronautique et de l'espace</t>
+          <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>sdhIDjYAAAAJ</t>
+          <t>uGv8N1kAAAAJ</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4383,11 +4383,11 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Sciences économiques, Finance et Gestion</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="O65" t="n">
         <v>28</v>
@@ -4415,27 +4415,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ghofrane</t>
+          <t>Sabrine</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Merhbene</t>
+          <t>Ziri</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Bern University of Applied Sciences</t>
+          <t>Institut supérieur de l'aéronautique et de l'espace</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Suisse</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>I5KRVLMAAAAJ</t>
+          <t>sdhIDjYAAAAJ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4444,30 +4444,30 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J66" t="n">
         <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="O66" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
@@ -4476,59 +4476,59 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Amr</t>
+          <t>Ghofrane</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Chaabani</t>
+          <t>Merhbene</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Bern University of Applied Sciences</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suisse</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>eickZDMAAAAJ</t>
+          <t>I5KRVLMAAAAJ</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -4537,17 +4537,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ilyes</t>
+          <t>Amr</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Rezgui</t>
+          <t>Chaabani</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2RI_ZRkAAAAJ</t>
+          <t>eickZDMAAAAJ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4566,29 +4566,90 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
+        <v>5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ilyes</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Rezgui</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Université de Tunis El Manar</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2RI_ZRkAAAAJ</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2001</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Informatique, Mathématiques et Ingénierie</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
         <v>0</v>
       </c>
-      <c r="O68" t="n">
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>0</v>
       </c>
     </row>

--- a/ranking_Aug-2024.xlsx
+++ b/ranking_Aug-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,10 +560,10 @@
         <v>56</v>
       </c>
       <c r="N2" t="n">
-        <v>5201</v>
+        <v>5206</v>
       </c>
       <c r="O2" t="n">
-        <v>4619</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="3">
@@ -621,10 +621,10 @@
         <v>85</v>
       </c>
       <c r="N3" t="n">
-        <v>3428</v>
+        <v>3432</v>
       </c>
       <c r="O3" t="n">
-        <v>3113</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="4">
@@ -682,10 +682,10 @@
         <v>37</v>
       </c>
       <c r="N4" t="n">
-        <v>1840</v>
+        <v>1846</v>
       </c>
       <c r="O4" t="n">
-        <v>1784</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="5">
@@ -804,10 +804,10 @@
         <v>29</v>
       </c>
       <c r="N6" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="O6" t="n">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>1471</v>
       </c>
       <c r="O7" t="n">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="8">
@@ -926,10 +926,10 @@
         <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="O8" t="n">
-        <v>1016</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9">
@@ -987,10 +987,10 @@
         <v>24</v>
       </c>
       <c r="N9" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="O9" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10">
@@ -1048,10 +1048,10 @@
         <v>15</v>
       </c>
       <c r="N10" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O10" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11">
@@ -1170,10 +1170,10 @@
         <v>13</v>
       </c>
       <c r="N12" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O12" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13">
@@ -1414,10 +1414,10 @@
         <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O16" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
@@ -1783,7 +1783,7 @@
         <v>854</v>
       </c>
       <c r="O22" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="23">
@@ -1841,10 +1841,10 @@
         <v>10</v>
       </c>
       <c r="N23" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O23" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24">
@@ -2146,10 +2146,10 @@
         <v>9</v>
       </c>
       <c r="N28" t="n">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O28" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29">
@@ -2201,16 +2201,16 @@
         <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M29" t="n">
         <v>8</v>
       </c>
       <c r="N29" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O29" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30">
@@ -2512,10 +2512,10 @@
         <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O34" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
@@ -2573,10 +2573,10 @@
         <v>6</v>
       </c>
       <c r="N35" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O35" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
@@ -2646,27 +2646,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fahmi</t>
+          <t>Kamel</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alila</t>
+          <t>Mhalhel</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Université de Nantes</t>
+          <t>Università Degli Studi di Messina</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Italie</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1v1t5G4AAAAJ</t>
+          <t>R35oeVAAAAAJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2675,11 +2675,11 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2692,13 +2692,13 @@
         <v>7</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O37" t="n">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38">
@@ -2707,59 +2707,59 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Latifa</t>
+          <t>Fahmi</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Remadi</t>
+          <t>Alila</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Nantes</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>c3jenkwAAAAJ</t>
+          <t>1v1t5G4AAAAJ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
         <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Latifa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Remadi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>c3jenkwAAAAJ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2811,16 +2811,16 @@
         <v>5</v>
       </c>
       <c r="L39" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" t="n">
         <v>5</v>
       </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
       <c r="N39" t="n">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="O39" t="n">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
@@ -2829,17 +2829,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2858,30 +2858,30 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
         <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="O40" t="n">
-        <v>103</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
@@ -2890,17 +2890,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2939,10 +2939,10 @@
         <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="O41" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42">
@@ -2951,12 +2951,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2994,16 +2994,16 @@
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="O42" t="n">
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43">
@@ -3012,17 +3012,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3041,30 +3041,30 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="O43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
@@ -3073,27 +3073,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Azza</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mensi</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Canadian Institutes of Health Research</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>nKvcr2gAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -3110,22 +3110,22 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
         <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="O44" t="n">
-        <v>179</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
@@ -3134,27 +3134,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dorra</t>
+          <t>Azza</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hadj Mahmoud</t>
+          <t>Mensi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Université d'Angers</t>
+          <t>Canadian Institutes of Health Research</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>20soGN4AAAAJ</t>
+          <t>nKvcr2gAAAAJ</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1990</v>
+        <v>1985</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -3183,10 +3183,10 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="O45" t="n">
-        <v>87</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46">
@@ -3195,59 +3195,59 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Dorra</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Hadj Mahmoud</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université d'Angers</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>20soGN4AAAAJ</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
         <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="n">
-        <v>436</v>
+        <v>89</v>
       </c>
       <c r="O46" t="n">
-        <v>405</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -3256,59 +3256,59 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ikbel</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hadj Hassine</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>iGnXpRMAAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
         <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="O47" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48">
@@ -3317,17 +3317,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bochra</t>
+          <t>Ikbel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Rabbouch</t>
+          <t>Hadj Hassine</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>rxq9X58AAAAJ</t>
+          <t>iGnXpRMAAAAJ</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3346,11 +3346,11 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3366,10 +3366,10 @@
         <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>118</v>
+        <v>400</v>
       </c>
       <c r="O48" t="n">
-        <v>115</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49">
@@ -3378,17 +3378,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Bochra</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Rabbouch</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>rxq9X58AAAAJ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3421,16 +3421,16 @@
         <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="O49" t="n">
-        <v>59</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50">
@@ -3439,17 +3439,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3482,16 +3482,16 @@
         <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O50" t="n">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51">
@@ -3500,17 +3500,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3520,12 +3520,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3540,19 +3540,19 @@
         <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O51" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -3561,17 +3561,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3581,16 +3581,16 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3601,19 +3601,19 @@
         <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
         <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="O52" t="n">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
@@ -3622,17 +3622,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3662,19 +3662,19 @@
         <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="O53" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -3683,17 +3683,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3720,22 +3720,22 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>191</v>
+        <v>39</v>
       </c>
       <c r="O54" t="n">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -3744,27 +3744,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nammouchi</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Karlstad University</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CALEjIEAAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3784,19 +3784,19 @@
         <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N55" t="n">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="O55" t="n">
-        <v>64</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56">
@@ -3805,17 +3805,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Nammouchi</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>Karlstad University</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>CALEjIEAAAAJ</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3834,30 +3834,30 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1985</v>
+        <v>1996</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="O56" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
@@ -3866,59 +3866,59 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J57" t="n">
         <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O57" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -3927,17 +3927,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ilef</t>
+          <t>Houssem Eddine</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Romdhani</t>
+          <t>Chachia</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3947,39 +3947,39 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>_ynJvKAAAAAJ</t>
+          <t>cbh0RuIAAAAJ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="O58" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
@@ -3988,17 +3988,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Ilef</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Romdhani</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4008,16 +4008,16 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>_ynJvKAAAAAJ</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -4028,19 +4028,19 @@
         <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L59" t="n">
         <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="O59" t="n">
-        <v>184</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
@@ -4049,17 +4049,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Aiman</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Ghrab</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4069,20 +4069,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>ZUM9JuwAAAAJ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -4098,10 +4098,10 @@
         <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="O60" t="n">
-        <v>51</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61">
@@ -4110,36 +4110,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -4159,10 +4159,10 @@
         <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O61" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
@@ -4171,27 +4171,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mohamed Aymen</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ben Abdessalem</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-k3TRw8AAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4200,30 +4200,30 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J62" t="n">
         <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
         <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O62" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63">
@@ -4232,17 +4232,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Emna</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Boughariou</t>
+          <t>Ben Cheikh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>wdvUCRwAAAAJ</t>
+          <t>uGv8N1kAAAAJ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4261,30 +4261,30 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Sciences économiques, Finance et Gestion</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="O63" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
@@ -4293,40 +4293,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dorsaf</t>
+          <t>Mohamed Aymen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sallami</t>
+          <t>Ben Abdessalem</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Université de Montréal</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>wUa3IWgAAAAJ</t>
+          <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4342,10 +4342,10 @@
         <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O64" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65">
@@ -4354,17 +4354,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Emna</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ben Cheikh</t>
+          <t>Boughariou</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>uGv8N1kAAAAJ</t>
+          <t>wdvUCRwAAAAJ</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4383,30 +4383,30 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Sciences économiques, Finance et Gestion</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="O65" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
@@ -4415,27 +4415,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sabrine</t>
+          <t>Dorsaf</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ziri</t>
+          <t>Sallami</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Institut supérieur de l'aéronautique et de l'espace</t>
+          <t>Université de Montréal</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>sdhIDjYAAAAJ</t>
+          <t>wUa3IWgAAAAJ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4444,30 +4444,30 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O66" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -4476,27 +4476,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ghofrane</t>
+          <t>Sabrine</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Merhbene</t>
+          <t>Ziri</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Bern University of Applied Sciences</t>
+          <t>Institut supérieur de l'aéronautique et de l'espace</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Suisse</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>I5KRVLMAAAAJ</t>
+          <t>sdhIDjYAAAAJ</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4505,30 +4505,30 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J67" t="n">
         <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
         <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N67" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="O67" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
@@ -4537,59 +4537,59 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Amr</t>
+          <t>Ghofrane</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chaabani</t>
+          <t>Merhbene</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Bern University of Applied Sciences</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suisse</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>eickZDMAAAAJ</t>
+          <t>I5KRVLMAAAAJ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O68" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -4598,17 +4598,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ilyes</t>
+          <t>Amr</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Rezgui</t>
+          <t>Chaabani</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2RI_ZRkAAAAJ</t>
+          <t>eickZDMAAAAJ</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4627,29 +4627,90 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ilyes</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rezgui</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Université de Tunis El Manar</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Tunisie</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2RI_ZRkAAAAJ</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2001</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Informatique, Mathématiques et Ingénierie</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
         <v>0</v>
       </c>
-      <c r="O69" t="n">
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
         <v>0</v>
       </c>
     </row>

--- a/ranking_Aug-2024.xlsx
+++ b/ranking_Aug-2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,27 +2646,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Kamel</t>
+          <t>Fahmi</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mhalhel</t>
+          <t>Alila</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Università Degli Studi di Messina</t>
+          <t>Université de Nantes</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Italie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>R35oeVAAAAAJ</t>
+          <t>1v1t5G4AAAAJ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2675,11 +2675,11 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -2692,13 +2692,13 @@
         <v>7</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -2707,59 +2707,59 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fahmi</t>
+          <t>Latifa</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Alila</t>
+          <t>Remadi</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Université de Nantes</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1v1t5G4AAAAJ</t>
+          <t>c3jenkwAAAAJ</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
         <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="O38" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Latifa</t>
+          <t>Amina</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Remadi</t>
+          <t>Maalej</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>c3jenkwAAAAJ</t>
+          <t>DhxmLocAAAAJ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2811,16 +2811,16 @@
         <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="O39" t="n">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40">
@@ -2829,17 +2829,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amina</t>
+          <t>Rania</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Maalej</t>
+          <t>Mzid</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DhxmLocAAAAJ</t>
+          <t>65QMwLIAAAAJ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2858,30 +2858,30 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J40" t="n">
         <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
         <v>5</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="O40" t="n">
-        <v>189</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -2890,17 +2890,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Rania</t>
+          <t>Agnès</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mzid</t>
+          <t>Ghorbel</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>65QMwLIAAAAJ</t>
+          <t>17L-HKsAAAAJ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2919,7 +2919,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="O41" t="n">
         <v>103</v>
@@ -2951,12 +2951,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Agnès</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ghorbel</t>
+          <t>Ben Saïd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>17L-HKsAAAAJ</t>
+          <t>PB-V7YkAAAAJ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2994,16 +2994,16 @@
         <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="O42" t="n">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -3012,17 +3012,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Issaad Kawther</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ben Saïd</t>
+          <t>Ezzine</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>PB-V7YkAAAAJ</t>
+          <t>Gfnh9AsAAAAJ</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3041,30 +3041,30 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J43" t="n">
         <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="O43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44">
@@ -3073,27 +3073,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Issaad Kawther</t>
+          <t>Azza</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ezzine</t>
+          <t>Mensi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Canadian Institutes of Health Research</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gfnh9AsAAAAJ</t>
+          <t>nKvcr2gAAAAJ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
@@ -3110,22 +3110,22 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
         <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="O44" t="n">
-        <v>51</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45">
@@ -3134,27 +3134,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Azza</t>
+          <t>Dorra</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mensi</t>
+          <t>Hadj Mahmoud</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Canadian Institutes of Health Research</t>
+          <t>Université d'Angers</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>nKvcr2gAAAAJ</t>
+          <t>20soGN4AAAAJ</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1985</v>
+        <v>1990</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -3183,10 +3183,10 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>247</v>
+        <v>89</v>
       </c>
       <c r="O45" t="n">
-        <v>179</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
@@ -3195,59 +3195,59 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dorra</t>
+          <t>Maher</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hadj Mahmoud</t>
+          <t>Damak</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Université d'Angers</t>
+          <t>Massachusetts Institute of Technology</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>États-Unis d'Amérique</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>20soGN4AAAAJ</t>
+          <t>r-f64cwAAAAJ</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J46" t="n">
         <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>5</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>89</v>
+        <v>436</v>
       </c>
       <c r="O46" t="n">
-        <v>88</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47">
@@ -3256,59 +3256,59 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Maher</t>
+          <t>Ikbel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Damak</t>
+          <t>Hadj Hassine</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Massachusetts Institute of Technology</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>États-Unis d'Amérique</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>r-f64cwAAAAJ</t>
+          <t>iGnXpRMAAAAJ</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J47" t="n">
         <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
         <v>5</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="O47" t="n">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48">
@@ -3317,17 +3317,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ikbel</t>
+          <t>Bochra</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hadj Hassine</t>
+          <t>Rabbouch</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>iGnXpRMAAAAJ</t>
+          <t>rxq9X58AAAAJ</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3346,11 +3346,11 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3366,10 +3366,10 @@
         <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>400</v>
+        <v>118</v>
       </c>
       <c r="O48" t="n">
-        <v>399</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -3378,17 +3378,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Bochra</t>
+          <t>Mouna</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rabbouch</t>
+          <t>Zouari</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>rxq9X58AAAAJ</t>
+          <t>yeS-euUAAAAJ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -3421,16 +3421,16 @@
         <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="n">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="O49" t="n">
-        <v>115</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -3439,17 +3439,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mouna</t>
+          <t>Ons</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Zouari</t>
+          <t>Abdelkhalek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>yeS-euUAAAAJ</t>
+          <t>k0dsKTQAAAAJ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -3482,16 +3482,16 @@
         <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O50" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -3500,17 +3500,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ons</t>
+          <t>Moncef</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Abdelkhalek</t>
+          <t>Ghiss</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3520,12 +3520,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>k0dsKTQAAAAJ</t>
+          <t>XSird1wAAAAJ</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -3540,19 +3540,19 @@
         <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O51" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -3561,17 +3561,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Moncef</t>
+          <t>Leila</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ghiss</t>
+          <t>Bayoudhi</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3581,16 +3581,16 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>XSird1wAAAAJ</t>
+          <t>VaC47ngAAAAJ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -3601,19 +3601,19 @@
         <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
         <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O52" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53">
@@ -3622,17 +3622,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Leila</t>
+          <t>Haïfa</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Bayoudhi</t>
+          <t>Nakouri</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de La Manouba</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>VaC47ngAAAAJ</t>
+          <t>6R_Zrj8AAAAJ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -3662,19 +3662,19 @@
         <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="O53" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -3683,17 +3683,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Haïfa</t>
+          <t>Asma</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nakouri</t>
+          <t>Amdouni</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Université de La Manouba</t>
+          <t>South Mediterranean University</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>6R_Zrj8AAAAJ</t>
+          <t>KgtSI2AAAAAJ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -3720,22 +3720,22 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="O54" t="n">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55">
@@ -3744,27 +3744,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Asma</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Amdouni</t>
+          <t>Nammouchi</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>South Mediterranean University</t>
+          <t>Karlstad University</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Suède</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>KgtSI2AAAAAJ</t>
+          <t>CALEjIEAAAAJ</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1987</v>
+        <v>1996</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -3784,19 +3784,19 @@
         <v>4</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="O55" t="n">
-        <v>151</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
@@ -3805,17 +3805,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Ghada</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nammouchi</t>
+          <t>Nouairia</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Karlstad University</t>
+          <t>Karolinska Institutet</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>CALEjIEAAAAJ</t>
+          <t>0S4DPdoAAAAJ</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3834,30 +3834,30 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J56" t="n">
         <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O56" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -3866,59 +3866,59 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ghada</t>
+          <t>Houssem Eddine</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Nouairia</t>
+          <t>Chachia</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Karolinska Institutet</t>
+          <t>Université de Tunis</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Suède</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0S4DPdoAAAAJ</t>
+          <t>cbh0RuIAAAAJ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Arts, Humanités et Sciences Sociales</t>
         </is>
       </c>
       <c r="J57" t="n">
         <v>4</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O57" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -3927,17 +3927,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Houssem Eddine</t>
+          <t>Ilef</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Chachia</t>
+          <t>Romdhani</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Université de Tunis</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3947,39 +3947,39 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>cbh0RuIAAAAJ</t>
+          <t>_ynJvKAAAAAJ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1984</v>
+        <v>1998</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Arts, Humanités et Sciences Sociales</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
         <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="O58" t="n">
-        <v>23</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
@@ -3988,17 +3988,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ilef</t>
+          <t>Aiman</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Romdhani</t>
+          <t>Ghrab</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4008,16 +4008,16 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>_ynJvKAAAAAJ</t>
+          <t>ZUM9JuwAAAAJ</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -4028,19 +4028,19 @@
         <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L59" t="n">
         <v>3</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="O59" t="n">
-        <v>87</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
@@ -4049,17 +4049,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Aiman</t>
+          <t>Noussaiba</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ghrab</t>
+          <t>Jaafar</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4069,20 +4069,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ZUM9JuwAAAAJ</t>
+          <t>R7TFZqIAAAAJ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J60" t="n">
@@ -4098,10 +4098,10 @@
         <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="O60" t="n">
-        <v>184</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61">
@@ -4110,36 +4110,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Noussaiba</t>
+          <t>Mohamed Slim</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jaafar</t>
+          <t>Kammoun</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Université de Tunis El Manar</t>
+          <t>Université de Lyon</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>R7TFZqIAAAAJ</t>
+          <t>tXcxSMQAAAAJ</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -4159,10 +4159,10 @@
         <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O61" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62">
@@ -4171,40 +4171,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mohamed Slim</t>
+          <t>Amal</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kammoun</t>
+          <t>Ben Cheikh</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Université de Lyon</t>
+          <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>tXcxSMQAAAAJ</t>
+          <t>uGv8N1kAAAAJ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Sciences économiques, Finance et Gestion</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -4220,10 +4220,10 @@
         <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O62" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63">
@@ -4232,17 +4232,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Amal</t>
+          <t>Mohamed Aymen</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ben Cheikh</t>
+          <t>Ben Abdessalem</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>École Supérieure Privée d'Ingénierie et de Technologies</t>
+          <t>Université de Sousse</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4252,39 +4252,39 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>uGv8N1kAAAAJ</t>
+          <t>-k3TRw8AAAAJ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Sciences économiques, Finance et Gestion</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J63" t="n">
         <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
         <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O63" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64">
@@ -4293,17 +4293,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mohamed Aymen</t>
+          <t>Emna</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Ben Abdessalem</t>
+          <t>Boughariou</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Université de Sousse</t>
+          <t>Université de Sfax</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4313,20 +4313,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-k3TRw8AAAAJ</t>
+          <t>wdvUCRwAAAAJ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J64" t="n">
@@ -4342,10 +4342,10 @@
         <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="O64" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -4354,27 +4354,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Emna</t>
+          <t>Dorsaf</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Boughariou</t>
+          <t>Sallami</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Université de Sfax</t>
+          <t>Université de Montréal</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Tunisie</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>wdvUCRwAAAAJ</t>
+          <t>wUa3IWgAAAAJ</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -4403,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O65" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -4415,27 +4415,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dorsaf</t>
+          <t>Sabrine</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sallami</t>
+          <t>Ziri</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Université de Montréal</t>
+          <t>Institut supérieur de l'aéronautique et de l'espace</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>wUa3IWgAAAAJ</t>
+          <t>sdhIDjYAAAAJ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4444,30 +4444,30 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Chimie et Sciences des Matériaux</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O66" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
@@ -4476,27 +4476,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sabrine</t>
+          <t>Ghofrane</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ziri</t>
+          <t>Merhbene</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Institut supérieur de l'aéronautique et de l'espace</t>
+          <t>Bern University of Applied Sciences</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Suisse</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>sdhIDjYAAAAJ</t>
+          <t>I5KRVLMAAAAJ</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4505,30 +4505,30 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Chimie et Sciences des Matériaux</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J67" t="n">
         <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -4537,59 +4537,59 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ghofrane</t>
+          <t>Amr</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Merhbene</t>
+          <t>Chaabani</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Bern University of Applied Sciences</t>
+          <t>Université de Monastir</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Suisse</t>
+          <t>Tunisie</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>I5KRVLMAAAAJ</t>
+          <t>eickZDMAAAAJ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1999</v>
+        <v>1994</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
+          <t>Médecine, Biologie et Sciences de la Santé</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O68" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -4598,17 +4598,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Amr</t>
+          <t>Ilyes</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Chaabani</t>
+          <t>Rezgui</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Université de Monastir</t>
+          <t>Université de Tunis El Manar</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>eickZDMAAAAJ</t>
+          <t>2RI_ZRkAAAAJ</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4627,90 +4627,29 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Médecine, Biologie et Sciences de la Santé</t>
+          <t>Informatique, Mathématiques et Ingénierie</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Ilyes</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Rezgui</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Université de Tunis El Manar</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Tunisie</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2RI_ZRkAAAAJ</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>2001</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Informatique, Mathématiques et Ingénierie</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
         <v>0</v>
       </c>
     </row>
